--- a/biology/Zoologie/Coracina/Coracina.xlsx
+++ b/biology/Zoologie/Coracina/Coracina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coracina est un genre de passereaux de la famille des Campephagidae. Il regroupe 22 espèces d'échenilleurs.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre vit à l'état naturel en Mélanésie[2],[3],[4],[5],[6],[7],[8],[9],[10],[11], en Australie[4],[5],[10],[12] et dans le Sud-Est de l'Asie[13],[14],[15],[16],[17],[18],[19],[20],[21],[22],[23].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre vit à l'état naturel en Mélanésie en Australie et dans le Sud-Est de l'Asie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste alphabétique des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après la classification de référence du Congrès ornithologique international  (version 8.2, 2018)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence du Congrès ornithologique international  (version 8.2, 2018) :
 Coracina atriceps (Müller, S, 1843) – Échenilleur de Ceram, Échenilleur des Moluques
 Coracina atriceps atriceps (Müller, S, 1843)
 Coracina atriceps magnirostris (Bonaparte, 1850)
@@ -668,9 +684,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre, qui comprenait auparavant plus de 50 espèces a fait l'objet en 2018 d'une nouvelle répartition parmi plusieurs espèces nouvelles ou existantes par la classification de référence du Congrès ornithologique international  (version 8.2, 2018)[1] sur des critères phylogéniques.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre, qui comprenait auparavant plus de 50 espèces a fait l'objet en 2018 d'une nouvelle répartition parmi plusieurs espèces nouvelles ou existantes par la classification de référence du Congrès ornithologique international  (version 8.2, 2018) sur des critères phylogéniques.
 </t>
         </is>
       </c>
